--- a/Austin_Public_Health_Locations.xlsx
+++ b/Austin_Public_Health_Locations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannon/Library/Mobile Documents/com~apple~CloudDocs/Programs/R/language-maps-for-aph/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="5260" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Austin_Public_Health_Locations " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
   <si>
     <t>Facility Name</t>
   </si>
@@ -589,9 +589,6 @@
     <t xml:space="preserve">Austin Independent School Center </t>
   </si>
   <si>
-    <t>Betty Dunkerley Health Campus Building B</t>
-  </si>
-  <si>
     <t>7201 Levander Loop
 Austin, Texas 78702
 (30.251305664000483, -97.69174879199966)</t>
@@ -626,24 +623,7 @@
     <t>Community Services, Health Equity and Community Engagement</t>
   </si>
   <si>
-    <t xml:space="preserve">Betty Dunkerley Campus, Building E </t>
-  </si>
-  <si>
-    <t>7201 Levander Loop, Building E
-Austin, Texas 78702
-(30.252944, -97.690225)</t>
-  </si>
-  <si>
-    <t>512-972-5000</t>
-  </si>
-  <si>
-    <t>BDCE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Own </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative Support Services, Health Equity and Community Engagement, Office of the Director </t>
   </si>
   <si>
     <t xml:space="preserve">First Workers Day Labor Center </t>
@@ -683,37 +663,6 @@
     <t xml:space="preserve">MRCC </t>
   </si>
   <si>
-    <t xml:space="preserve">Betty Dunkerley Campus Building H, Administrative Services </t>
-  </si>
-  <si>
-    <t>7201 Levander Loop, Building H
-Austin, Texas 78702
-(30.253738, -97.689104)</t>
-  </si>
-  <si>
-    <t>BDCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative Support Services, Community Services, Health Equity and Community Engagement </t>
-  </si>
-  <si>
-    <t>Betty Dunkerley Health Campus, Building C</t>
-  </si>
-  <si>
-    <t>7201 Levander Loop, Bulding C
-Austin, Texas 78702
-(30.251614, -97.690013)</t>
-  </si>
-  <si>
-    <t>BDCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Services, Epidemiology, Public Health Preparedness </t>
-  </si>
-  <si>
-    <t>Offices</t>
-  </si>
-  <si>
     <t>7201 Colony Loop Drive, Austin, TX 78724</t>
   </si>
   <si>
@@ -724,6 +673,21 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Betty Dunkerley Health Campus</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>WIC Clinic</t>
+  </si>
+  <si>
+    <t>Neighborhood Center</t>
+  </si>
+  <si>
+    <t>Other Location</t>
   </si>
 </sst>
 </file>
@@ -1039,1516 +1003,1492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="1" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>209</v>
-      </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>78602</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>30.106468534000399</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-97.332115733999601</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>1400</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>78722</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>30.280750365000401</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-97.722459406999604</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>347</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1984</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>78703</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>30.2812205300004</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-97.763300546999602</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>3500</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>78617</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>30.198796000000002</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-97.642069000000006</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>1000</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>78702</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>30.259717999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-97.727463999999998</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>4304</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1981</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>78702</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>30.252329</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-97.690404000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>78744</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30.187722000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-97.770860999999996</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>64</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>2100</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>78702</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>30.259744999999999</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-97.727356</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>21</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>4304</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1981</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>78621</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>30.345313000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-97.369808000000006</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>45</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>21</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1500</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>78745</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>30.20701</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-97.779239000000004</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>78</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>29</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>79</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>4750</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1982</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>78653</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>30.340164000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-97.563744</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>82</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>84</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>45</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>21</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>1700</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>85</v>
       </c>
       <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>78758</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>30.364895000000001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-97.717039999999997</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>89</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>91</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>19</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>92</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>2080</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1993</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>78741</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>30.229149</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-97.701341999999997</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>96</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>97</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>98</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>29</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>21</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>99</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>2840</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1976</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>100</v>
       </c>
       <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>78741</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>30.214991000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-97.708832999999998</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>104</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>19</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>105</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>1993</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
       <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
         <v>107</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>78758</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>30.365148999999999</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-97.716958000000005</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>110</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>92</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>21</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>4200</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1993</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>111</v>
       </c>
       <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>78735</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>30.251474999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-97.893722999999994</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>114</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>115</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>45</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>21</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>1200</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>116</v>
       </c>
       <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
         <v>117</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>78660</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>30.449000999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-97.651859999999999</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>119</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>120</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>45</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>2000</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>121</v>
       </c>
       <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
         <v>122</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>78702</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>30.252310000000001</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-97.733446000000001</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>123</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>125</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>126</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>29</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>30</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>127</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>50809</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1968</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>128</v>
       </c>
       <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>78702</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>30.265355</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-97.710554999999999</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>130</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>131</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>132</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>133</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>29</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>30</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>21</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>17128</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1974</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>134</v>
       </c>
       <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s">
         <v>135</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>78702</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>30.265487</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-97.710380000000001</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>136</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>137</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>17</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>133</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>29</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>30</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>21</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>17128</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1974</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>138</v>
       </c>
       <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>78754</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>30.337078000000002</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-97.681139999999999</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>140</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>141</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>142</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>143</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>29</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>30</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>144</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>145</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>2500</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>146</v>
       </c>
       <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>78704</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>30.239253999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-97.760064</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>148</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>149</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>150</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>151</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>29</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>30</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>21</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>152</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>18651</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1980</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>153</v>
       </c>
       <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s">
         <v>154</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>78704</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>30.239252</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-97.760073000000006</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>155</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>156</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>151</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>29</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>157</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>21</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>18651</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>158</v>
       </c>
       <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
         <v>159</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>78752</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>30.332632</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-97.693348</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>160</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>161</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>162</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>163</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>19</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>164</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>21</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>9559</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>165</v>
       </c>
       <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
         <v>166</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>78752</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>30.332635</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-97.693349999999995</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>167</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>168</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>163</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>19</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>169</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>21</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>9559</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27">
+        <v>78702</v>
+      </c>
+      <c r="E27">
+        <v>30.251305664000402</v>
+      </c>
+      <c r="F27">
+        <v>-97.691748791999601</v>
+      </c>
+      <c r="G27" t="s">
         <v>171</v>
       </c>
-      <c r="C27">
-        <v>78702</v>
-      </c>
-      <c r="D27">
-        <v>30.251305664000402</v>
-      </c>
-      <c r="E27">
-        <v>-97.691748791999601</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>172</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>173</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
         <v>174</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
+        <v>145</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2190</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28">
+        <v>78752</v>
+      </c>
+      <c r="E28">
+        <v>30.333683000000001</v>
+      </c>
+      <c r="F28">
+        <v>-97.698535000000007</v>
+      </c>
+      <c r="I28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s">
         <v>29</v>
       </c>
-      <c r="L27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" t="s">
-        <v>175</v>
-      </c>
-      <c r="N27" t="s">
-        <v>145</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2190</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="M28" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4200</v>
+      </c>
+      <c r="Q28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28">
-        <v>78752</v>
-      </c>
-      <c r="D28">
-        <v>30.333683000000001</v>
-      </c>
-      <c r="E28">
-        <v>-97.698535000000007</v>
-      </c>
-      <c r="H28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J28" t="s">
-        <v>179</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>157</v>
-      </c>
-      <c r="M28" t="s">
-        <v>180</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="1">
-        <v>4200</v>
-      </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>181</v>
       </c>
       <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
         <v>182</v>
       </c>
-      <c r="C29">
-        <v>78702</v>
-      </c>
       <c r="D29">
-        <v>30.252943999999999</v>
+        <v>78751</v>
       </c>
       <c r="E29">
-        <v>-97.690224999999998</v>
+        <v>30.308436</v>
+      </c>
+      <c r="F29">
+        <v>-97.711862999999994</v>
       </c>
       <c r="H29" t="s">
         <v>183</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" t="s">
         <v>184</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
         <v>185</v>
       </c>
-      <c r="L29" t="s">
-        <v>157</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
         <v>186</v>
       </c>
-      <c r="N29" t="s">
-        <v>145</v>
-      </c>
-      <c r="O29" s="1">
-        <v>12403</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1">
+        <v>5315</v>
+      </c>
+      <c r="Q29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>187</v>
       </c>
       <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
         <v>188</v>
       </c>
-      <c r="C30">
-        <v>78751</v>
-      </c>
       <c r="D30">
-        <v>30.308436</v>
+        <v>78741</v>
       </c>
       <c r="E30">
-        <v>-97.711862999999994</v>
+        <v>30.232386000000002</v>
+      </c>
+      <c r="F30">
+        <v>-97.699893000000003</v>
       </c>
       <c r="G30" t="s">
         <v>189</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>190</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s">
+        <v>157</v>
+      </c>
+      <c r="N30" t="s">
         <v>21</v>
       </c>
-      <c r="N30" t="s">
-        <v>192</v>
-      </c>
-      <c r="O30" s="1">
-        <v>5315</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31">
-        <v>78741</v>
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
       </c>
       <c r="D31">
-        <v>30.232386000000002</v>
+        <v>78724</v>
       </c>
       <c r="E31">
-        <v>-97.699893000000003</v>
-      </c>
-      <c r="F31" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" t="s">
-        <v>196</v>
-      </c>
-      <c r="J31" t="s">
-        <v>197</v>
-      </c>
-      <c r="K31" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" t="s">
-        <v>157</v>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" t="s">
-        <v>145</v>
-      </c>
-      <c r="P31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32">
-        <v>78702</v>
-      </c>
-      <c r="D32">
-        <v>30.253737999999998</v>
-      </c>
-      <c r="E32">
-        <v>-97.689104</v>
-      </c>
-      <c r="J32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" t="s">
-        <v>185</v>
-      </c>
-      <c r="L32" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" t="s">
-        <v>201</v>
-      </c>
-      <c r="N32" t="s">
-        <v>145</v>
-      </c>
-      <c r="O32" s="1">
-        <v>10016</v>
-      </c>
-      <c r="P32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33">
-        <v>78702</v>
-      </c>
-      <c r="D33">
-        <v>30.251614</v>
-      </c>
-      <c r="E33">
-        <v>-97.690012999999993</v>
-      </c>
-      <c r="H33" t="s">
-        <v>183</v>
-      </c>
-      <c r="J33" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" t="s">
-        <v>185</v>
-      </c>
-      <c r="L33" t="s">
-        <v>157</v>
-      </c>
-      <c r="M33" t="s">
-        <v>205</v>
-      </c>
-      <c r="N33" t="s">
-        <v>206</v>
-      </c>
-      <c r="O33" s="1">
-        <v>7448</v>
-      </c>
-      <c r="P33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34">
-        <v>78724</v>
-      </c>
-      <c r="D34">
         <v>30.302523000000001</v>
       </c>
-      <c r="E34">
+      <c r="F31">
         <v>-97.637159999999994</v>
       </c>
     </row>

--- a/Austin_Public_Health_Locations.xlsx
+++ b/Austin_Public_Health_Locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Austin_Public_Health_Locations " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
   <si>
     <t>Facility Name</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t>Other Location</t>
+  </si>
+  <si>
+    <t>Dove Springs Neighborhood Public Health Facility</t>
+  </si>
+  <si>
+    <t>5106 Village Square Drive, Austin, Texas 78744</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2492,6 +2498,26 @@
         <v>-97.637159999999994</v>
       </c>
     </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32">
+        <v>78744</v>
+      </c>
+      <c r="E32">
+        <v>30.188171000000001</v>
+      </c>
+      <c r="F32">
+        <v>-97.744249999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
